--- a/doc/draw/开发日志文档.xlsx
+++ b/doc/draw/开发日志文档.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>日志系统完善</t>
   </si>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1175,8 +1175,12 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="8">
+        <v>45756</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">

--- a/doc/draw/开发日志文档.xlsx
+++ b/doc/draw/开发日志文档.xlsx
@@ -29,13 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
-  <si>
-    <t>日志系统完善</t>
-  </si>
-  <si>
-    <t>2025/2/25（开始时间）</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>完成</t>
   </si>
@@ -43,18 +37,27 @@
     <t>发现 bug：当为绝对路径时，需要重建路径</t>
   </si>
   <si>
-    <t>实现流处理</t>
+    <t>性能优化：避免字符串拼接，写入流中</t>
   </si>
   <si>
     <t>线程优化：启动记录日志上的优化</t>
   </si>
   <si>
-    <t>功能新增：多线程下可以输出日志（需要进行测试）</t>
+    <t>功能新增：多线程下可以输出日志（需要长期进行测试）</t>
+  </si>
+  <si>
+    <t>长期进行</t>
   </si>
   <si>
     <t>发现 bug：无法读写日志文件</t>
   </si>
   <si>
+    <t>由于析构函数运行
+时没有判断是否
+还有日志的情况，
+导致强行结束了日志</t>
+  </si>
+  <si>
     <t>性能优化：实现传入参数可传入多个数据</t>
   </si>
   <si>
@@ -64,7 +67,8 @@
     <t>性能测试：吞吐量测试</t>
   </si>
   <si>
-    <t>长期进行</t>
+    <t>142w /s 
+（大约稳定在 142w/s）</t>
   </si>
   <si>
     <t>性能优化：日志可以调节绝对路径和相对路径的输出情况</t>
@@ -76,16 +80,44 @@
     <t>性能优化：在读入日志之前，提前分配内存</t>
   </si>
   <si>
+    <t>使用一个辅助线程解决</t>
+  </si>
+  <si>
     <t>发现 bug：连续写入内容导致崩溃（bad_alloc）</t>
   </si>
   <si>
+    <t>线程安全问题</t>
+  </si>
+  <si>
     <t>发现 bug：连续读写卡在某一处无法结束（测试环境）</t>
   </si>
   <si>
+    <t>由于线程处于
+沉睡状态导致
+（调用析构函数
+后需要唤醒日
+志并且完全
+输出日志）</t>
+  </si>
+  <si>
     <t>修订文档</t>
   </si>
   <si>
-    <t>发现 bug：内存泄露</t>
+    <t>发现 bug：内存泄露
+（当写入速度达到 10ms/条 时候，内存会不断变大）</t>
+  </si>
+  <si>
+    <t>（当前解决方案为：
+生产-消费模型）</t>
+  </si>
+  <si>
+    <t>性能锁死：由于 C++ 自带的 string 性能所限制</t>
+  </si>
+  <si>
+    <t>只做注意</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -457,7 +489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -502,19 +534,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,7 +660,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,34 +672,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,12 +784,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,32 +800,26 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1122,237 +1132,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.6363636363636"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="10.6363636363636"/>
-    <col min="6" max="6" width="10.6363636363636"/>
+    <col min="1" max="1" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="3" width="59" customWidth="1"/>
+    <col min="4" max="6" width="10.6363636363636"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4">
+        <v>45722</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="6">
+        <v>45723</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45724</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5">
+      <c r="C3" s="6">
+        <v>45739</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45754</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45724</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45725</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45723</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
         <v>45722</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45724</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45722</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45754</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45722</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45726</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
         <v>45723</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6">
         <v>45724</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>45756</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="8">
-        <v>45724</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6">
         <v>45725</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>45723</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45722</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>45724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
-        <v>45722</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
-        <v>45722</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>45731</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45725</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45732</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6">
         <v>45726</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
-        <v>45723</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8">
-        <v>45724</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8">
-        <v>45725</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8">
-        <v>45725</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8">
-        <v>45726</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
         <v>45727</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6">
         <v>45727</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
         <v>45728</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>45731</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45731</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="B1:B15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
